--- a/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Preferred foreign aid is higher than current</t>
@@ -398,117 +401,138 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>0.583443944030363</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.749645016270873</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>0.586593562593609</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>0.641535775870434</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.383944755701105</v>
       </c>
-      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="n">
+        <v>0.159388231940962</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.151979692570815</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>0.183313026569603</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.179854411018564</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.120375836006707</v>
       </c>
-      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="n">
+        <v>0.531554053118514</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.61254428469078</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>0.614173438735866</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>0.533634360745338</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.344095062780298</v>
       </c>
-      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="n">
+        <v>0.212666811996959</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.212745142850656</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.208397587400629</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.223289605183078</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.210507923245896</v>
       </c>
-      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
+        <v>0.588291214300699</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.62062568525634</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.6224526766782</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>0.681172492315443</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>0.712886742501885</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.472808316632176</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.588291214300699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
+        <v>0.183031300296115</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.150615860031759</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.0994033756987271</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>0.105536405872812</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>0.0735719273898395</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.315262309233012</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.183031300296115</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
@@ -414,16 +414,16 @@
         <v>0.583443944030363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.749645016270873</v>
+        <v>0.763615993755324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.586593562593609</v>
+        <v>0.565058736502848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.641535775870434</v>
+        <v>0.625935065691632</v>
       </c>
       <c r="G2" t="n">
-        <v>0.383944755701105</v>
+        <v>0.45915775281757</v>
       </c>
     </row>
     <row r="3">
@@ -435,16 +435,16 @@
         <v>0.159388231940962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.151979692570815</v>
+        <v>0.146764519663124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.183313026569603</v>
+        <v>0.193794310054106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.179854411018564</v>
+        <v>0.167300785003967</v>
       </c>
       <c r="G3" t="n">
-        <v>0.120375836006707</v>
+        <v>0.112545415943537</v>
       </c>
     </row>
     <row r="4">
@@ -456,16 +456,16 @@
         <v>0.531554053118514</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61254428469078</v>
+        <v>0.640342702324481</v>
       </c>
       <c r="E4" t="n">
-        <v>0.614173438735866</v>
+        <v>0.5979510741487</v>
       </c>
       <c r="F4" t="n">
-        <v>0.533634360745338</v>
+        <v>0.53420090022397</v>
       </c>
       <c r="G4" t="n">
-        <v>0.344095062780298</v>
+        <v>0.358188651820109</v>
       </c>
     </row>
     <row r="5">
@@ -477,16 +477,16 @@
         <v>0.212666811996959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212745142850656</v>
+        <v>0.18801390420431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.208397587400629</v>
+        <v>0.204068557752786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.223289605183078</v>
+        <v>0.216331438596583</v>
       </c>
       <c r="G5" t="n">
-        <v>0.210507923245896</v>
+        <v>0.215511097984529</v>
       </c>
     </row>
     <row r="6">
@@ -500,16 +500,16 @@
         <v>0.62062568525634</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6224526766782</v>
+        <v>0.635105090097805</v>
       </c>
       <c r="E6" t="n">
-        <v>0.681172492315443</v>
+        <v>0.664766252854912</v>
       </c>
       <c r="F6" t="n">
-        <v>0.712886742501885</v>
+        <v>0.697095923343685</v>
       </c>
       <c r="G6" t="n">
-        <v>0.472808316632176</v>
+        <v>0.5434431896239</v>
       </c>
     </row>
     <row r="7">
@@ -523,16 +523,16 @@
         <v>0.150615860031759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0994033756987271</v>
+        <v>0.0784389467627555</v>
       </c>
       <c r="E7" t="n">
-        <v>0.105536405872812</v>
+        <v>0.123118956947224</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0735719273898395</v>
+        <v>0.095361552886419</v>
       </c>
       <c r="G7" t="n">
-        <v>0.315262309233012</v>
+        <v>0.264369268818796</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
@@ -409,84 +409,92 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>0.411602094599074</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.583443944030363</v>
+        <v>0.589837119485913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.763615993755324</v>
+        <v>0.753920608842609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.565058736502848</v>
+        <v>0.576461037322966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.625935065691632</v>
+        <v>0.62526790907398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.45915775281757</v>
+        <v>0.426622250399556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>0.275594429239559</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.159388231940962</v>
+        <v>0.159132073365543</v>
       </c>
       <c r="D3" t="n">
-        <v>0.146764519663124</v>
+        <v>0.153073091431498</v>
       </c>
       <c r="E3" t="n">
-        <v>0.193794310054106</v>
+        <v>0.180697366235472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.167300785003967</v>
+        <v>0.143527375648785</v>
       </c>
       <c r="G3" t="n">
-        <v>0.112545415943537</v>
+        <v>0.144827304024705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>0.341094135940619</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.531554053118514</v>
+        <v>0.533701101345921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.640342702324481</v>
+        <v>0.636414779134716</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5979510741487</v>
+        <v>0.587651067741646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.53420090022397</v>
+        <v>0.537247023957455</v>
       </c>
       <c r="G4" t="n">
-        <v>0.358188651820109</v>
+        <v>0.393330839363339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>0.208196425697832</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.212666811996959</v>
+        <v>0.210008624462074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18801390420431</v>
+        <v>0.196094133272378</v>
       </c>
       <c r="E5" t="n">
-        <v>0.204068557752786</v>
+        <v>0.205582565093013</v>
       </c>
       <c r="F5" t="n">
-        <v>0.216331438596583</v>
+        <v>0.236522011514021</v>
       </c>
       <c r="G5" t="n">
-        <v>0.215511097984529</v>
+        <v>0.18389456157886</v>
       </c>
     </row>
     <row r="6">
@@ -494,22 +502,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.588291214300699</v>
+        <v>0.598187012564733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.62062568525634</v>
+        <v>0.636739028674537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.635105090097805</v>
+        <v>0.627588384954585</v>
       </c>
       <c r="E6" t="n">
-        <v>0.664766252854912</v>
+        <v>0.676807601959896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.697095923343685</v>
+        <v>0.691059073949057</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5434431896239</v>
+        <v>0.560844998477962</v>
       </c>
     </row>
     <row r="7">
@@ -517,22 +525,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.183031300296115</v>
+        <v>0.18028384191809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.150615860031759</v>
+        <v>0.138501430842085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0784389467627555</v>
+        <v>0.076424398031436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.123118956947224</v>
+        <v>0.107886976232851</v>
       </c>
       <c r="F7" t="n">
-        <v>0.095361552886419</v>
+        <v>0.104534936604642</v>
       </c>
       <c r="G7" t="n">
-        <v>0.264369268818796</v>
+        <v>0.245975567329776</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
@@ -410,7 +410,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.411602094599074</v>
+        <v>0.474793644184466</v>
       </c>
       <c r="C2" t="n">
         <v>0.589837119485913</v>
@@ -433,7 +433,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.275594429239559</v>
+        <v>0.230146731096319</v>
       </c>
       <c r="C3" t="n">
         <v>0.159132073365543</v>
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.341094135940619</v>
+        <v>0.365019334499854</v>
       </c>
       <c r="C4" t="n">
         <v>0.533701101345921</v>
@@ -479,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.208196425697832</v>
+        <v>0.201984066395562</v>
       </c>
       <c r="C5" t="n">
         <v>0.210008624462074</v>
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.598187012564733</v>
+        <v>0.35891220753884</v>
       </c>
       <c r="C6" t="n">
         <v>0.636739028674537</v>
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18028384191809</v>
+        <v>0.108170305150854</v>
       </c>
       <c r="C7" t="n">
         <v>0.138501430842085</v>

--- a/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_more_all_positive.xlsx
@@ -433,22 +433,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.230146731096319</v>
+        <v>0.295059624719215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159132073365543</v>
+        <v>0.251030807148544</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153073091431498</v>
+        <v>0.0930062997258936</v>
       </c>
       <c r="E3" t="n">
-        <v>0.180697366235472</v>
+        <v>0.242841596441562</v>
       </c>
       <c r="F3" t="n">
-        <v>0.143527375648785</v>
+        <v>0.231204715277235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.144827304024705</v>
+        <v>0.428550445575739</v>
       </c>
     </row>
     <row r="4">
@@ -479,22 +479,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.201984066395562</v>
+        <v>0.432996599104584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210008624462074</v>
+        <v>0.256290274192006</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196094133272378</v>
+        <v>0.167491087592906</v>
       </c>
       <c r="E5" t="n">
-        <v>0.205582565093013</v>
+        <v>0.206766367165341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.236522011514021</v>
+        <v>0.226230964528524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.18389456157886</v>
+        <v>0.422774599057801</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.35891220753884</v>
+        <v>0.598187012564733</v>
       </c>
       <c r="C6" t="n">
         <v>0.636739028674537</v>
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.108170305150854</v>
+        <v>0.18028384191809</v>
       </c>
       <c r="C7" t="n">
         <v>0.138501430842085</v>
